--- a/biology/Zoologie/Heliconius_ethilla/Heliconius_ethilla.xlsx
+++ b/biology/Zoologie/Heliconius_ethilla/Heliconius_ethilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius ethilla est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,14 +523,51 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius ethilla a été décrit par Jean-Baptiste Godart en 1819[1].
-Sous-espèces
-Heliconius ethilla ethilla ; présent au Venezuela et à Trinité-et-Tobago.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius ethilla a été décrit par Jean-Baptiste Godart en 1819.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heliconius_ethilla</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_ethilla</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius ethilla ethilla ; présent au Venezuela et à Trinité-et-Tobago.
 Heliconius ethilla adela Neustetter, 1912; présent au Pérou.
 Heliconius ethilla aerotome C. &amp; R. Felder, 1862
-Heliconius ethilla cephallenia C. &amp; R. Felder, [1865]; présent au Surinam.
+Heliconius ethilla cephallenia C. &amp; R. Felder, ; présent au Surinam.
 Heliconius ethilla chapadensis Brown, 1973; présent au Brésil.
 Heliconius ethilla claudia Godman &amp; Salvin; présent à Panama.
 Heliconius ethilla eucoma Hübner, 1831; présent à Panama et au Pérou.
@@ -535,48 +584,11 @@
 Heliconius ethilla neukircheni Lamas, 1998; présent au Pérou.
 Heliconius ethilla numismaticus Weymer, 1894; présent au Brésil.
 Heliconius ethilla penthesilea Neukirchen, 1994; présent au Brésil.
-Heliconius ethilla polychrous C. &amp; R. Felder, [1865]; présent au Brésil.
+Heliconius ethilla polychrous C. &amp; R. Felder, ; présent au Brésil.
 Heliconius ethilla semiflavidus Weymer, 1894; présent en Colombie.
 Heliconius ethilla thielei Riffarth, 1900; présent en Guyane
 Heliconius ethilla tyndarus Weymer, 1897; présent en Bolivie
-Heliconius ethilla yuruani Brown &amp; Fernández, 1985; présent au Venezuela[1].
-Nom vernaculaire
-Heliconius ethilla se nomme Ethilia Longwing en anglais[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Heliconius_ethilla</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_ethilla</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon aux ailes allongées et arrondies de couleur orange orné de marron. Les ailes antérieures sont orange avec une bordure marron à l'apex, des taches marron dans la partie basale et, plus ou moins de taches jaunes pâleen ligne déparant l'apex. Les ailes postérieures sont orange avec une bordure et sont barrées par une ligne de taches marron
-Le revers est semblable.
-Chenilles
-La chenille est blanche avec des épines noires avec une tête orange[3].
-</t>
+Heliconius ethilla yuruani Brown &amp; Fernández, 1985; présent au Venezuela.</t>
         </is>
       </c>
     </row>
@@ -601,13 +613,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes sont des Granadilla (Passifloraceae)[3].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius ethilla se nomme Ethilia Longwing en anglais.
 </t>
         </is>
       </c>
@@ -633,14 +650,159 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon aux ailes allongées et arrondies de couleur orange orné de marron. Les ailes antérieures sont orange avec une bordure marron à l'apex, des taches marron dans la partie basale et, plus ou moins de taches jaunes pâleen ligne déparant l'apex. Les ailes postérieures sont orange avec une bordure et sont barrées par une ligne de taches marron
+Le revers est semblable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_ethilla</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_ethilla</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenilles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est blanche avec des épines noires avec une tête orange.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_ethilla</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_ethilla</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des Granadilla (Passifloraceae).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_ethilla</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_ethilla</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Guyane, en Guyana, au Surinam, à Panama, en Équateur, au Venezuela, à Trinité-et-Tobago, en Bolivie,  en Colombie, au Brésil et au Pérou[1].
-Biotope
-Il réside à proximité de la forêt[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Guyane, en Guyana, au Surinam, à Panama, en Équateur, au Venezuela, à Trinité-et-Tobago, en Bolivie,  en Colombie, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_ethilla</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_ethilla</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside à proximité de la forêt.
 </t>
         </is>
       </c>
